--- a/assets/plantillas/superadmin-condo-report-plantillas.xlsx
+++ b/assets/plantillas/superadmin-condo-report-plantillas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Reporte Condominios</t>
   </si>
@@ -61,13 +61,10 @@
     <t xml:space="preserve">Admin </t>
   </si>
   <si>
-    <t xml:space="preserve">Total Usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.° Torres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.° Bloques de Casas</t>
+    <t xml:space="preserve">Total Departamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Areas Comunes</t>
   </si>
   <si>
     <t xml:space="preserve">${table:condominios.index}</t>
@@ -97,13 +94,10 @@
     <t xml:space="preserve">${table:condominios.admin}</t>
   </si>
   <si>
-    <t xml:space="preserve">${table:condominios.totalUsuarios}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${table:condominios.cantidadTorres}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${table:condominios.cantidadCasas}</t>
+    <t xml:space="preserve">${table:condominios.totalDepartamentos}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${table:condominios.areasComunes}</t>
   </si>
 </sst>
 </file>
@@ -225,7 +219,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -243,10 +237,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -502,8 +492,8 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -517,8 +507,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="31.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="24.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="6"/>
@@ -578,47 +568,43 @@
       <c r="K6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="L6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="L7" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
